--- a/DbLayouts/L5-管理性作業/CollTel.xlsx
+++ b/DbLayouts/L5-管理性作業/CollTel.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25ED4BCE-A436-4E35-AD72-1ACD77FF1332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377B404F-F338-47AD-A57E-2A0C51BEA9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -273,10 +273,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AcDate&gt;= , AND AcDate&lt;= ,AND CaseCode= ,AND CustNo= ,AND FacmNo= ,</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CaseCode= ,AND CustNo= ,AND FacmNo= ,</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -293,10 +289,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">AcDate&gt;= , AND AcDate&lt;= ,AND CaseCode= ,AND CustNo= </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">CaseCode= ,AND CustNo= </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -316,6 +308,14 @@
   <si>
     <t>2021/8/18 已與舜文確認只需填入時間此欄位由6碼改成4碼</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TelDate&gt;= , AND TelDate&lt;= ,AND CaseCode= ,AND CustNo= ,AND FacmNo= ,</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TelDate&gt;= , AND TelDate&lt;= ,AND CaseCode= ,AND CustNo= </t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1096,7 +1096,7 @@
         <v>58</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="19" t="s">
         <v>35</v>
@@ -1173,7 +1173,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1215,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>28</v>
@@ -1232,7 +1232,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>28</v>
@@ -1249,7 +1249,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>28</v>
@@ -1398,7 +1398,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1425,10 +1425,10 @@
         <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1436,32 +1436,32 @@
         <v>65</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
